--- a/테이블명세서V_1.1.xlsx
+++ b/테이블명세서V_1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TM_USERINFO" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>NO</t>
   </si>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>ACTION_ID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>SEQ</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -177,6 +173,14 @@
   </si>
   <si>
     <t>참여방ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECIEVE_ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 ID</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1017,12 +1021,12 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -1048,12 +1052,12 @@
       <c r="C3" s="13"/>
       <c r="D3" s="36"/>
       <c r="E3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="8"/>
       <c r="H3" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="36"/>
       <c r="J3" s="13"/>
@@ -1622,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1673,12 +1677,12 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -1704,12 +1708,12 @@
       <c r="C3" s="13"/>
       <c r="D3" s="36"/>
       <c r="E3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="8"/>
       <c r="H3" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="36"/>
       <c r="J3" s="13"/>
@@ -1733,12 +1737,12 @@
       <c r="C4" s="13"/>
       <c r="D4" s="36"/>
       <c r="E4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="8"/>
       <c r="H4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="36"/>
       <c r="J4" s="13"/>
@@ -1760,12 +1764,12 @@
       <c r="C5" s="13"/>
       <c r="D5" s="36"/>
       <c r="E5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="8"/>
       <c r="H5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="36"/>
       <c r="J5" s="13"/>
@@ -1787,12 +1791,12 @@
       <c r="C6" s="13"/>
       <c r="D6" s="36"/>
       <c r="E6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="8"/>
       <c r="H6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="13"/>
@@ -1809,17 +1813,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -1836,17 +1840,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -1873,7 +1877,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
@@ -1926,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1947,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -1968,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
